--- a/FormulaEditor/单病种质控指标算法-瑞金医院IS.xlsx
+++ b/FormulaEditor/单病种质控指标算法-瑞金医院IS.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7515" firstSheet="1" activeTab="1"/>
@@ -2746,27 +2746,293 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>分母：入组患者。
+    <r>
+      <t>分母：入组患者。
 分子：满足【接诊时间≤15分钟】；
 注1.关联：入组患者按照【门急诊关联】；
-1.1有门急诊关联的，且挂号科室为【评价科室】且有处方的，取处方的最小开立时间-当前挂号时间≤15分钟,且大于等于0；
-1.2有门急诊关联的，且挂号科室为【评价科室】且有检验记录的，取检验记录的最小申请时间-当前挂号时间≤15分钟,且大于等于0；
-1.3有门急诊关联的，且挂号科室为【评价科室】且有检查记录的，取检查记录的最小申请时间-当前挂号时间≤15分钟,且大于等于0；
-2.1有门急诊关联的，且挂号科室为【评价科室】无处方的，取住院医嘱的最小开立时间-入院时间≤15分钟,且大于等于0；
-2.2有门急诊关联的，且挂号科室为【评价科室】无检验记录的，取住院检验记录的最小申请时间-入院时间≤15分钟,且大于等于0；
-2.3有门急诊关联的，且挂号科室为【评价科室】无检查记录的，取住院检查记录的最小申请时间-入院时间≤15分钟,且大于等于0；
+1.1有门急诊关联的，且挂号科室为【评价科室】且有处方的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>处方的最小开立时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前挂号时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
+1.2有门急诊关联的，且挂号科室为【评价科室】且有检验记录的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检验记录的最小申请时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前挂号时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
+1.3有门急诊关联的，且挂号科室为【评价科室】且有检查记录的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>检查记录的最小申请时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>当前挂号时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
+2.1有门急诊关联的，且挂号科室为【评价科室】无处方的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院医嘱的最小开立时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入院时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
+2.2有门急诊关联的，且挂号科室为【评价科室】无检验记录的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院检验记录的最小申请时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入院时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
+2.3有门急诊关联的，且挂号科室为【评价科室】无检查记录的，取</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>住院检查记录的最小申请时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>入院时间</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>≤15分钟,且大于等于0；
 3.1无门急诊关联的，取医嘱的最小开立时间-入院时间≤15分钟,且大于等于0；
 3.2无门急诊关联的，取检验记录的最小申请时间-入院时间≤15分钟,且大于等于0；
 3.3无门急诊关联的，取检查记录的最小申请时间-入院时间≤15分钟,且大于等于0；
 满足上述1或2或3者，记为【接诊时间≤15分钟】；</t>
+    </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3198,26 +3464,110 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3237,27 +3587,9 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -3266,72 +3598,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3359,12 +3625,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3406,7 +3675,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3438,9 +3707,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3472,6 +3759,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3647,16 +3952,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G121"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="9" customWidth="1"/>
     <col min="2" max="2" width="9" style="6"/>
     <col min="3" max="3" width="25.25" style="9" customWidth="1"/>
     <col min="4" max="4" width="31.875" style="6" customWidth="1"/>
@@ -3666,7 +3971,7 @@
     <col min="8" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1">
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3689,8 +3994,8 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" customHeight="1">
-      <c r="A2" s="58" t="s">
+    <row r="2" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="63" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="57" t="s">
@@ -3712,8 +4017,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" customHeight="1">
-      <c r="A3" s="58"/>
+    <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="63"/>
       <c r="B3" s="57"/>
       <c r="C3" s="56"/>
       <c r="D3" s="7" t="s">
@@ -3725,8 +4030,8 @@
       <c r="F3" s="56"/>
       <c r="G3" s="56"/>
     </row>
-    <row r="4" spans="1:7" ht="30" customHeight="1">
-      <c r="A4" s="58"/>
+    <row r="4" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="63"/>
       <c r="B4" s="57" t="s">
         <v>11</v>
       </c>
@@ -3746,8 +4051,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="30" customHeight="1">
-      <c r="A5" s="58"/>
+    <row r="5" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="63"/>
       <c r="B5" s="57"/>
       <c r="C5" s="56"/>
       <c r="D5" s="7" t="s">
@@ -3759,8 +4064,8 @@
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
     </row>
-    <row r="6" spans="1:7" ht="30" customHeight="1">
-      <c r="A6" s="58"/>
+    <row r="6" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="63"/>
       <c r="B6" s="57"/>
       <c r="C6" s="56"/>
       <c r="D6" s="7" t="s">
@@ -3772,8 +4077,8 @@
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
     </row>
-    <row r="7" spans="1:7" ht="55.5" customHeight="1">
-      <c r="A7" s="58"/>
+    <row r="7" spans="1:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="63"/>
       <c r="B7" s="5" t="s">
         <v>22</v>
       </c>
@@ -3793,8 +4098,8 @@
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="30" customHeight="1">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="63" t="s">
         <v>98</v>
       </c>
       <c r="B8" s="57" t="s">
@@ -3816,8 +4121,8 @@
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="63"/>
       <c r="B9" s="57"/>
       <c r="C9" s="56"/>
       <c r="D9" s="1" t="s">
@@ -3829,8 +4134,8 @@
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="63"/>
       <c r="B10" s="57"/>
       <c r="C10" s="56"/>
       <c r="D10" s="1" t="s">
@@ -3842,8 +4147,8 @@
       <c r="F10" s="57"/>
       <c r="G10" s="57"/>
     </row>
-    <row r="11" spans="1:7" ht="30" customHeight="1">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="63"/>
       <c r="B11" s="57" t="s">
         <v>29</v>
       </c>
@@ -3863,8 +4168,8 @@
         <v>137</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="63"/>
       <c r="B12" s="57"/>
       <c r="C12" s="56"/>
       <c r="D12" s="5" t="s">
@@ -3876,8 +4181,8 @@
       <c r="F12" s="56"/>
       <c r="G12" s="56"/>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="63"/>
       <c r="B13" s="57"/>
       <c r="C13" s="56"/>
       <c r="D13" s="1" t="s">
@@ -3889,8 +4194,8 @@
       <c r="F13" s="57"/>
       <c r="G13" s="57"/>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
       <c r="B14" s="57" t="s">
         <v>107</v>
       </c>
@@ -3910,8 +4215,8 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="63"/>
       <c r="B15" s="57"/>
       <c r="C15" s="56"/>
       <c r="D15" s="5" t="s">
@@ -3923,8 +4228,8 @@
       <c r="F15" s="56"/>
       <c r="G15" s="56"/>
     </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="63"/>
       <c r="B16" s="57"/>
       <c r="C16" s="56"/>
       <c r="D16" s="1" t="s">
@@ -3936,8 +4241,8 @@
       <c r="F16" s="57"/>
       <c r="G16" s="57"/>
     </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="63"/>
       <c r="B17" s="57" t="s">
         <v>30</v>
       </c>
@@ -3957,8 +4262,8 @@
         <v>142</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="30" customHeight="1">
-      <c r="A18" s="58"/>
+    <row r="18" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="63"/>
       <c r="B18" s="57"/>
       <c r="C18" s="56"/>
       <c r="D18" s="5" t="s">
@@ -3970,8 +4275,8 @@
       <c r="F18" s="56"/>
       <c r="G18" s="56"/>
     </row>
-    <row r="19" spans="1:7" ht="30" customHeight="1">
-      <c r="A19" s="58"/>
+    <row r="19" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="63"/>
       <c r="B19" s="57"/>
       <c r="C19" s="56"/>
       <c r="D19" s="1" t="s">
@@ -3983,8 +4288,8 @@
       <c r="F19" s="56"/>
       <c r="G19" s="56"/>
     </row>
-    <row r="20" spans="1:7" ht="30" customHeight="1">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="63"/>
       <c r="B20" s="57"/>
       <c r="C20" s="56"/>
       <c r="D20" s="1" t="s">
@@ -3996,7 +4301,7 @@
       <c r="F20" s="56"/>
       <c r="G20" s="56"/>
     </row>
-    <row r="21" spans="1:7" ht="30" customHeight="1">
+    <row r="21" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="56" t="s">
         <v>99</v>
       </c>
@@ -4019,7 +4324,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="30" customHeight="1">
+    <row r="22" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="56"/>
       <c r="B22" s="57"/>
       <c r="C22" s="56"/>
@@ -4028,7 +4333,7 @@
       <c r="F22" s="56"/>
       <c r="G22" s="56"/>
     </row>
-    <row r="23" spans="1:7" ht="30" customHeight="1">
+    <row r="23" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="56"/>
       <c r="B23" s="57"/>
       <c r="C23" s="56"/>
@@ -4041,7 +4346,7 @@
       <c r="F23" s="56"/>
       <c r="G23" s="56"/>
     </row>
-    <row r="24" spans="1:7" ht="30" customHeight="1">
+    <row r="24" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="56"/>
       <c r="B24" s="57"/>
       <c r="C24" s="56"/>
@@ -4054,7 +4359,7 @@
       <c r="F24" s="56"/>
       <c r="G24" s="56"/>
     </row>
-    <row r="25" spans="1:7" ht="30" customHeight="1">
+    <row r="25" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="56" t="s">
         <v>100</v>
       </c>
@@ -4077,7 +4382,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="30" customHeight="1">
+    <row r="26" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="56"/>
       <c r="B26" s="57"/>
       <c r="C26" s="56"/>
@@ -4090,7 +4395,7 @@
       <c r="F26" s="57"/>
       <c r="G26" s="57"/>
     </row>
-    <row r="27" spans="1:7" ht="30" customHeight="1">
+    <row r="27" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="56"/>
       <c r="B27" s="57"/>
       <c r="C27" s="56"/>
@@ -4103,7 +4408,7 @@
       <c r="F27" s="57"/>
       <c r="G27" s="57"/>
     </row>
-    <row r="28" spans="1:7" ht="30" customHeight="1">
+    <row r="28" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="7" t="s">
         <v>101</v>
       </c>
@@ -4126,8 +4431,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="30" customHeight="1">
-      <c r="A29" s="58" t="s">
+    <row r="29" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="63" t="s">
         <v>103</v>
       </c>
       <c r="B29" s="57" t="s">
@@ -4149,8 +4454,8 @@
         <v>209</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="30" customHeight="1">
-      <c r="A30" s="58"/>
+    <row r="30" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="63"/>
       <c r="B30" s="57"/>
       <c r="C30" s="56"/>
       <c r="D30" s="5" t="s">
@@ -4162,8 +4467,8 @@
       <c r="F30" s="56"/>
       <c r="G30" s="56"/>
     </row>
-    <row r="31" spans="1:7" ht="30" customHeight="1">
-      <c r="A31" s="58"/>
+    <row r="31" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="63"/>
       <c r="B31" s="57"/>
       <c r="C31" s="56"/>
       <c r="D31" s="5" t="s">
@@ -4175,8 +4480,8 @@
       <c r="F31" s="56"/>
       <c r="G31" s="56"/>
     </row>
-    <row r="32" spans="1:7" ht="30" customHeight="1">
-      <c r="A32" s="58"/>
+    <row r="32" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="63"/>
       <c r="B32" s="57" t="s">
         <v>102</v>
       </c>
@@ -4196,8 +4501,8 @@
         <v>210</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="30" customHeight="1">
-      <c r="A33" s="58"/>
+    <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="63"/>
       <c r="B33" s="57"/>
       <c r="C33" s="56"/>
       <c r="D33" s="5" t="s">
@@ -4209,8 +4514,8 @@
       <c r="F33" s="57"/>
       <c r="G33" s="57"/>
     </row>
-    <row r="34" spans="1:7" ht="30" customHeight="1">
-      <c r="A34" s="58"/>
+    <row r="34" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="63"/>
       <c r="B34" s="57"/>
       <c r="C34" s="56"/>
       <c r="D34" s="5" t="s">
@@ -4222,8 +4527,8 @@
       <c r="F34" s="57"/>
       <c r="G34" s="57"/>
     </row>
-    <row r="35" spans="1:7" ht="30" customHeight="1">
-      <c r="A35" s="58"/>
+    <row r="35" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="63"/>
       <c r="B35" s="57"/>
       <c r="C35" s="56"/>
       <c r="D35" s="5" t="s">
@@ -4235,8 +4540,8 @@
       <c r="F35" s="57"/>
       <c r="G35" s="57"/>
     </row>
-    <row r="36" spans="1:7" ht="30" customHeight="1">
-      <c r="A36" s="58" t="s">
+    <row r="36" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="63" t="s">
         <v>104</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -4258,8 +4563,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="30" customHeight="1">
-      <c r="A37" s="58"/>
+    <row r="37" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="63"/>
       <c r="B37" s="5" t="s">
         <v>36</v>
       </c>
@@ -4279,8 +4584,8 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="30" customHeight="1">
-      <c r="A38" s="58"/>
+    <row r="38" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="63"/>
       <c r="B38" s="57" t="s">
         <v>37</v>
       </c>
@@ -4300,8 +4605,8 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="30" customHeight="1">
-      <c r="A39" s="58"/>
+    <row r="39" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="63"/>
       <c r="B39" s="57"/>
       <c r="C39" s="56"/>
       <c r="D39" s="5" t="s">
@@ -4313,8 +4618,8 @@
       <c r="F39" s="56"/>
       <c r="G39" s="56"/>
     </row>
-    <row r="40" spans="1:7" ht="30" customHeight="1">
-      <c r="A40" s="58"/>
+    <row r="40" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="63"/>
       <c r="B40" s="57"/>
       <c r="C40" s="56"/>
       <c r="D40" s="5" t="s">
@@ -4326,8 +4631,8 @@
       <c r="F40" s="56"/>
       <c r="G40" s="56"/>
     </row>
-    <row r="41" spans="1:7" ht="30" customHeight="1">
-      <c r="A41" s="58"/>
+    <row r="41" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="63"/>
       <c r="B41" s="57"/>
       <c r="C41" s="56"/>
       <c r="D41" s="5" t="s">
@@ -4339,8 +4644,8 @@
       <c r="F41" s="56"/>
       <c r="G41" s="56"/>
     </row>
-    <row r="42" spans="1:7" ht="30" customHeight="1">
-      <c r="A42" s="58"/>
+    <row r="42" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="63"/>
       <c r="B42" s="57"/>
       <c r="C42" s="56"/>
       <c r="D42" s="5" t="s">
@@ -4352,8 +4657,8 @@
       <c r="F42" s="56"/>
       <c r="G42" s="56"/>
     </row>
-    <row r="43" spans="1:7" ht="30" customHeight="1">
-      <c r="A43" s="58" t="s">
+    <row r="43" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="63" t="s">
         <v>105</v>
       </c>
       <c r="B43" s="57" t="s">
@@ -4375,8 +4680,8 @@
         <v>217</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="30" customHeight="1">
-      <c r="A44" s="58"/>
+    <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="63"/>
       <c r="B44" s="57"/>
       <c r="C44" s="56"/>
       <c r="D44" s="5" t="s">
@@ -4388,8 +4693,8 @@
       <c r="F44" s="57"/>
       <c r="G44" s="57"/>
     </row>
-    <row r="45" spans="1:7" ht="30" customHeight="1">
-      <c r="A45" s="58"/>
+    <row r="45" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="63"/>
       <c r="B45" s="57" t="s">
         <v>39</v>
       </c>
@@ -4409,8 +4714,8 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="30" customHeight="1">
-      <c r="A46" s="58"/>
+    <row r="46" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="63"/>
       <c r="B46" s="57"/>
       <c r="C46" s="56"/>
       <c r="D46" s="1" t="s">
@@ -4422,8 +4727,8 @@
       <c r="F46" s="57"/>
       <c r="G46" s="57"/>
     </row>
-    <row r="47" spans="1:7" ht="30" customHeight="1">
-      <c r="A47" s="58"/>
+    <row r="47" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="63"/>
       <c r="B47" s="57"/>
       <c r="C47" s="56"/>
       <c r="D47" s="1" t="s">
@@ -4435,8 +4740,8 @@
       <c r="F47" s="57"/>
       <c r="G47" s="57"/>
     </row>
-    <row r="48" spans="1:7" ht="30" customHeight="1">
-      <c r="A48" s="58"/>
+    <row r="48" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="63"/>
       <c r="B48" s="57" t="s">
         <v>40</v>
       </c>
@@ -4456,8 +4761,8 @@
         <v>222</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="30" customHeight="1">
-      <c r="A49" s="58"/>
+    <row r="49" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="63"/>
       <c r="B49" s="57"/>
       <c r="C49" s="56"/>
       <c r="D49" s="1" t="s">
@@ -4469,8 +4774,8 @@
       <c r="F49" s="57"/>
       <c r="G49" s="57"/>
     </row>
-    <row r="50" spans="1:7" ht="30" customHeight="1">
-      <c r="A50" s="58"/>
+    <row r="50" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="63"/>
       <c r="B50" s="57"/>
       <c r="C50" s="56"/>
       <c r="D50" s="1" t="s">
@@ -4482,8 +4787,8 @@
       <c r="F50" s="57"/>
       <c r="G50" s="57"/>
     </row>
-    <row r="51" spans="1:7" ht="30" customHeight="1">
-      <c r="A51" s="58"/>
+    <row r="51" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="63"/>
       <c r="B51" s="57" t="s">
         <v>41</v>
       </c>
@@ -4503,8 +4808,8 @@
         <v>225</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="30" customHeight="1">
-      <c r="A52" s="58"/>
+    <row r="52" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="63"/>
       <c r="B52" s="57"/>
       <c r="C52" s="56"/>
       <c r="D52" s="1" t="s">
@@ -4516,8 +4821,8 @@
       <c r="F52" s="57"/>
       <c r="G52" s="57"/>
     </row>
-    <row r="53" spans="1:7" ht="30" customHeight="1">
-      <c r="A53" s="58"/>
+    <row r="53" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="63"/>
       <c r="B53" s="57"/>
       <c r="C53" s="56"/>
       <c r="D53" s="1" t="s">
@@ -4529,8 +4834,8 @@
       <c r="F53" s="57"/>
       <c r="G53" s="57"/>
     </row>
-    <row r="54" spans="1:7" ht="30" customHeight="1">
-      <c r="A54" s="58"/>
+    <row r="54" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="63"/>
       <c r="B54" s="57" t="s">
         <v>42</v>
       </c>
@@ -4550,8 +4855,8 @@
         <v>228</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="30" customHeight="1">
-      <c r="A55" s="58"/>
+    <row r="55" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="63"/>
       <c r="B55" s="57"/>
       <c r="C55" s="56"/>
       <c r="D55" s="1" t="s">
@@ -4563,8 +4868,8 @@
       <c r="F55" s="57"/>
       <c r="G55" s="57"/>
     </row>
-    <row r="56" spans="1:7" ht="30" customHeight="1">
-      <c r="A56" s="58"/>
+    <row r="56" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="63"/>
       <c r="B56" s="57" t="s">
         <v>43</v>
       </c>
@@ -4577,15 +4882,15 @@
       <c r="E56" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="F56" s="59" t="s">
+      <c r="F56" s="60" t="s">
         <v>279</v>
       </c>
-      <c r="G56" s="58" t="s">
+      <c r="G56" s="63" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="30" customHeight="1">
-      <c r="A57" s="58"/>
+    <row r="57" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="63"/>
       <c r="B57" s="57"/>
       <c r="C57" s="56"/>
       <c r="D57" s="1" t="s">
@@ -4594,11 +4899,11 @@
       <c r="E57" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="F57" s="60"/>
-      <c r="G57" s="62"/>
-    </row>
-    <row r="58" spans="1:7" ht="30" customHeight="1">
-      <c r="A58" s="58"/>
+      <c r="F57" s="62"/>
+      <c r="G57" s="64"/>
+    </row>
+    <row r="58" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="63"/>
       <c r="B58" s="57"/>
       <c r="C58" s="56"/>
       <c r="D58" s="1" t="s">
@@ -4607,11 +4912,11 @@
       <c r="E58" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="F58" s="61"/>
-      <c r="G58" s="62"/>
-    </row>
-    <row r="59" spans="1:7" ht="30" customHeight="1">
-      <c r="A59" s="58"/>
+      <c r="F58" s="59"/>
+      <c r="G58" s="64"/>
+    </row>
+    <row r="59" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="63"/>
       <c r="B59" s="57" t="s">
         <v>170</v>
       </c>
@@ -4631,8 +4936,8 @@
         <v>232</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="30" customHeight="1">
-      <c r="A60" s="58"/>
+    <row r="60" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="63"/>
       <c r="B60" s="57"/>
       <c r="C60" s="56"/>
       <c r="D60" s="5" t="s">
@@ -4644,8 +4949,8 @@
       <c r="F60" s="57"/>
       <c r="G60" s="57"/>
     </row>
-    <row r="61" spans="1:7" ht="30" customHeight="1">
-      <c r="A61" s="58"/>
+    <row r="61" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="63"/>
       <c r="B61" s="57" t="s">
         <v>44</v>
       </c>
@@ -4665,8 +4970,8 @@
         <v>233</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="30" customHeight="1">
-      <c r="A62" s="58"/>
+    <row r="62" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="63"/>
       <c r="B62" s="57"/>
       <c r="C62" s="56"/>
       <c r="D62" s="5" t="s">
@@ -4678,8 +4983,8 @@
       <c r="F62" s="57"/>
       <c r="G62" s="57"/>
     </row>
-    <row r="63" spans="1:7" ht="30" customHeight="1">
-      <c r="A63" s="58"/>
+    <row r="63" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="63"/>
       <c r="B63" s="57" t="s">
         <v>45</v>
       </c>
@@ -4699,8 +5004,8 @@
         <v>234</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="30" customHeight="1">
-      <c r="A64" s="58"/>
+    <row r="64" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="63"/>
       <c r="B64" s="57"/>
       <c r="C64" s="56"/>
       <c r="D64" s="1" t="s">
@@ -4712,8 +5017,8 @@
       <c r="F64" s="57"/>
       <c r="G64" s="57"/>
     </row>
-    <row r="65" spans="1:7" ht="30" customHeight="1">
-      <c r="A65" s="58"/>
+    <row r="65" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="63"/>
       <c r="B65" s="57"/>
       <c r="C65" s="56"/>
       <c r="D65" s="1" t="s">
@@ -4725,8 +5030,8 @@
       <c r="F65" s="57"/>
       <c r="G65" s="57"/>
     </row>
-    <row r="66" spans="1:7" ht="30" customHeight="1">
-      <c r="A66" s="58"/>
+    <row r="66" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="63"/>
       <c r="B66" s="57"/>
       <c r="C66" s="56"/>
       <c r="D66" s="1" t="s">
@@ -4738,8 +5043,8 @@
       <c r="F66" s="57"/>
       <c r="G66" s="57"/>
     </row>
-    <row r="67" spans="1:7" ht="30" customHeight="1">
-      <c r="A67" s="58"/>
+    <row r="67" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="63"/>
       <c r="B67" s="57"/>
       <c r="C67" s="56"/>
       <c r="D67" s="1" t="s">
@@ -4751,8 +5056,8 @@
       <c r="F67" s="57"/>
       <c r="G67" s="57"/>
     </row>
-    <row r="68" spans="1:7" ht="30" customHeight="1">
-      <c r="A68" s="58"/>
+    <row r="68" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="63"/>
       <c r="B68" s="57" t="s">
         <v>46</v>
       </c>
@@ -4772,8 +5077,8 @@
         <v>237</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="30" customHeight="1">
-      <c r="A69" s="58"/>
+    <row r="69" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="63"/>
       <c r="B69" s="57"/>
       <c r="C69" s="56"/>
       <c r="D69" s="1" t="s">
@@ -4785,8 +5090,8 @@
       <c r="F69" s="57"/>
       <c r="G69" s="57"/>
     </row>
-    <row r="70" spans="1:7" ht="30" customHeight="1">
-      <c r="A70" s="58"/>
+    <row r="70" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="63"/>
       <c r="B70" s="57"/>
       <c r="C70" s="56"/>
       <c r="D70" s="1" t="s">
@@ -4798,8 +5103,8 @@
       <c r="F70" s="57"/>
       <c r="G70" s="57"/>
     </row>
-    <row r="71" spans="1:7" ht="30" customHeight="1">
-      <c r="A71" s="58"/>
+    <row r="71" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="63"/>
       <c r="B71" s="57"/>
       <c r="C71" s="56"/>
       <c r="D71" s="1" t="s">
@@ -4811,8 +5116,8 @@
       <c r="F71" s="57"/>
       <c r="G71" s="57"/>
     </row>
-    <row r="72" spans="1:7" ht="30" customHeight="1">
-      <c r="A72" s="58" t="s">
+    <row r="72" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="63" t="s">
         <v>106</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -4834,8 +5139,8 @@
         <v>239</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="30" customHeight="1">
-      <c r="A73" s="58"/>
+    <row r="73" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="63"/>
       <c r="B73" s="5" t="s">
         <v>48</v>
       </c>
@@ -4855,8 +5160,8 @@
         <v>240</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="30" customHeight="1">
-      <c r="A74" s="58"/>
+    <row r="74" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="63"/>
       <c r="B74" s="57" t="s">
         <v>49</v>
       </c>
@@ -4876,8 +5181,8 @@
         <v>242</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="30" customHeight="1">
-      <c r="A75" s="58"/>
+    <row r="75" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="63"/>
       <c r="B75" s="57"/>
       <c r="C75" s="56"/>
       <c r="D75" s="1" t="s">
@@ -4889,8 +5194,8 @@
       <c r="F75" s="57"/>
       <c r="G75" s="57"/>
     </row>
-    <row r="76" spans="1:7" ht="30" customHeight="1">
-      <c r="A76" s="58"/>
+    <row r="76" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="63"/>
       <c r="B76" s="57" t="s">
         <v>50</v>
       </c>
@@ -4910,8 +5215,8 @@
         <v>245</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="30" customHeight="1">
-      <c r="A77" s="58"/>
+    <row r="77" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="63"/>
       <c r="B77" s="57"/>
       <c r="C77" s="56"/>
       <c r="D77" s="1" t="s">
@@ -4923,8 +5228,8 @@
       <c r="F77" s="57"/>
       <c r="G77" s="57"/>
     </row>
-    <row r="78" spans="1:7" ht="30" customHeight="1">
-      <c r="A78" s="58"/>
+    <row r="78" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="63"/>
       <c r="B78" s="57" t="s">
         <v>51</v>
       </c>
@@ -4944,8 +5249,8 @@
         <v>248</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="30" customHeight="1">
-      <c r="A79" s="58"/>
+    <row r="79" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="63"/>
       <c r="B79" s="57"/>
       <c r="C79" s="56"/>
       <c r="D79" s="1" t="s">
@@ -4957,8 +5262,8 @@
       <c r="F79" s="57"/>
       <c r="G79" s="57"/>
     </row>
-    <row r="80" spans="1:7" ht="30" customHeight="1">
-      <c r="A80" s="58"/>
+    <row r="80" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="63"/>
       <c r="B80" s="57"/>
       <c r="C80" s="56"/>
       <c r="D80" s="1" t="s">
@@ -4970,8 +5275,8 @@
       <c r="F80" s="57"/>
       <c r="G80" s="57"/>
     </row>
-    <row r="81" spans="1:7" ht="71.25" customHeight="1">
-      <c r="A81" s="58" t="s">
+    <row r="81" spans="1:7" ht="71.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="63" t="s">
         <v>97</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -4989,8 +5294,8 @@
         <v>251</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="85.5" customHeight="1">
-      <c r="A82" s="58"/>
+    <row r="82" spans="1:7" ht="85.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="63"/>
       <c r="B82" s="5" t="s">
         <v>53</v>
       </c>
@@ -5010,8 +5315,8 @@
         <v>252</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="81" customHeight="1">
-      <c r="A83" s="58"/>
+    <row r="83" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="63"/>
       <c r="B83" s="5" t="s">
         <v>54</v>
       </c>
@@ -5031,8 +5336,8 @@
         <v>253</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="30" customHeight="1">
-      <c r="A84" s="58"/>
+    <row r="84" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="63"/>
       <c r="B84" s="57" t="s">
         <v>55</v>
       </c>
@@ -5052,8 +5357,8 @@
         <v>254</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="63.75" customHeight="1">
-      <c r="A85" s="58"/>
+    <row r="85" spans="1:7" ht="63.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="63"/>
       <c r="B85" s="57"/>
       <c r="C85" s="56"/>
       <c r="D85" s="5" t="s">
@@ -5065,8 +5370,8 @@
       <c r="F85" s="57"/>
       <c r="G85" s="57"/>
     </row>
-    <row r="86" spans="1:7" ht="30" customHeight="1">
-      <c r="A86" s="58"/>
+    <row r="86" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="63"/>
       <c r="B86" s="57" t="s">
         <v>56</v>
       </c>
@@ -5086,8 +5391,8 @@
         <v>255</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="30" customHeight="1">
-      <c r="A87" s="58"/>
+    <row r="87" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="63"/>
       <c r="B87" s="57"/>
       <c r="C87" s="56"/>
       <c r="D87" s="1" t="s">
@@ -5099,8 +5404,8 @@
       <c r="F87" s="57"/>
       <c r="G87" s="57"/>
     </row>
-    <row r="88" spans="1:7" ht="30" customHeight="1">
-      <c r="A88" s="58"/>
+    <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="63"/>
       <c r="B88" s="57"/>
       <c r="C88" s="56"/>
       <c r="D88" s="1" t="s">
@@ -5112,8 +5417,8 @@
       <c r="F88" s="57"/>
       <c r="G88" s="57"/>
     </row>
-    <row r="89" spans="1:7" ht="30" customHeight="1">
-      <c r="A89" s="58"/>
+    <row r="89" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="63"/>
       <c r="B89" s="57"/>
       <c r="C89" s="56"/>
       <c r="D89" s="1" t="s">
@@ -5125,8 +5430,8 @@
       <c r="F89" s="57"/>
       <c r="G89" s="57"/>
     </row>
-    <row r="90" spans="1:7" ht="30" customHeight="1">
-      <c r="A90" s="58"/>
+    <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="63"/>
       <c r="B90" s="57"/>
       <c r="C90" s="56"/>
       <c r="D90" s="1" t="s">
@@ -5138,8 +5443,8 @@
       <c r="F90" s="57"/>
       <c r="G90" s="57"/>
     </row>
-    <row r="91" spans="1:7" ht="30" customHeight="1">
-      <c r="A91" s="58"/>
+    <row r="91" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="63"/>
       <c r="B91" s="57"/>
       <c r="C91" s="56"/>
       <c r="D91" s="1" t="s">
@@ -5151,8 +5456,8 @@
       <c r="F91" s="57"/>
       <c r="G91" s="57"/>
     </row>
-    <row r="92" spans="1:7" ht="30" customHeight="1">
-      <c r="A92" s="58"/>
+    <row r="92" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="63"/>
       <c r="B92" s="57"/>
       <c r="C92" s="56"/>
       <c r="D92" s="1" t="s">
@@ -5164,8 +5469,8 @@
       <c r="F92" s="57"/>
       <c r="G92" s="57"/>
     </row>
-    <row r="93" spans="1:7" ht="30" customHeight="1">
-      <c r="A93" s="58"/>
+    <row r="93" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="63"/>
       <c r="B93" s="57" t="s">
         <v>57</v>
       </c>
@@ -5185,8 +5490,8 @@
         <v>256</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="30" customHeight="1">
-      <c r="A94" s="58"/>
+    <row r="94" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="63"/>
       <c r="B94" s="57"/>
       <c r="C94" s="56"/>
       <c r="D94" s="1" t="s">
@@ -5198,8 +5503,8 @@
       <c r="F94" s="57"/>
       <c r="G94" s="57"/>
     </row>
-    <row r="95" spans="1:7" ht="30" customHeight="1">
-      <c r="A95" s="58"/>
+    <row r="95" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="63"/>
       <c r="B95" s="57"/>
       <c r="C95" s="56"/>
       <c r="D95" s="1" t="s">
@@ -5211,8 +5516,8 @@
       <c r="F95" s="57"/>
       <c r="G95" s="57"/>
     </row>
-    <row r="96" spans="1:7" ht="30" customHeight="1">
-      <c r="A96" s="58"/>
+    <row r="96" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="63"/>
       <c r="B96" s="57"/>
       <c r="C96" s="56"/>
       <c r="D96" s="1" t="s">
@@ -5224,8 +5529,8 @@
       <c r="F96" s="57"/>
       <c r="G96" s="57"/>
     </row>
-    <row r="97" spans="1:7" ht="30" customHeight="1">
-      <c r="A97" s="58"/>
+    <row r="97" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="63"/>
       <c r="B97" s="57"/>
       <c r="C97" s="56"/>
       <c r="D97" s="1" t="s">
@@ -5237,8 +5542,8 @@
       <c r="F97" s="57"/>
       <c r="G97" s="57"/>
     </row>
-    <row r="98" spans="1:7" ht="30" customHeight="1">
-      <c r="A98" s="58"/>
+    <row r="98" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="63"/>
       <c r="B98" s="57" t="s">
         <v>58</v>
       </c>
@@ -5258,8 +5563,8 @@
         <v>257</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="30" customHeight="1">
-      <c r="A99" s="58"/>
+    <row r="99" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="63"/>
       <c r="B99" s="57"/>
       <c r="C99" s="56"/>
       <c r="D99" s="1" t="s">
@@ -5271,8 +5576,8 @@
       <c r="F99" s="57"/>
       <c r="G99" s="57"/>
     </row>
-    <row r="100" spans="1:7" ht="30" customHeight="1">
-      <c r="A100" s="58"/>
+    <row r="100" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="63"/>
       <c r="B100" s="57"/>
       <c r="C100" s="56"/>
       <c r="D100" s="1" t="s">
@@ -5284,8 +5589,8 @@
       <c r="F100" s="57"/>
       <c r="G100" s="57"/>
     </row>
-    <row r="101" spans="1:7" ht="30" customHeight="1">
-      <c r="A101" s="58"/>
+    <row r="101" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="63"/>
       <c r="B101" s="57" t="s">
         <v>59</v>
       </c>
@@ -5305,8 +5610,8 @@
         <v>258</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="43.5" customHeight="1">
-      <c r="A102" s="58"/>
+    <row r="102" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="63"/>
       <c r="B102" s="57"/>
       <c r="C102" s="56"/>
       <c r="D102" s="1" t="s">
@@ -5318,8 +5623,8 @@
       <c r="F102" s="57"/>
       <c r="G102" s="57"/>
     </row>
-    <row r="103" spans="1:7" ht="30" customHeight="1">
-      <c r="A103" s="58"/>
+    <row r="103" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="63"/>
       <c r="B103" s="57" t="s">
         <v>60</v>
       </c>
@@ -5339,8 +5644,8 @@
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="30" customHeight="1">
-      <c r="A104" s="58"/>
+    <row r="104" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="63"/>
       <c r="B104" s="57"/>
       <c r="C104" s="56"/>
       <c r="D104" s="1" t="s">
@@ -5352,8 +5657,8 @@
       <c r="F104" s="57"/>
       <c r="G104" s="57"/>
     </row>
-    <row r="105" spans="1:7" ht="30" customHeight="1">
-      <c r="A105" s="58"/>
+    <row r="105" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="63"/>
       <c r="B105" s="57"/>
       <c r="C105" s="56"/>
       <c r="D105" s="1" t="s">
@@ -5365,8 +5670,8 @@
       <c r="F105" s="57"/>
       <c r="G105" s="57"/>
     </row>
-    <row r="106" spans="1:7" ht="30" customHeight="1">
-      <c r="A106" s="58"/>
+    <row r="106" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="63"/>
       <c r="B106" s="57"/>
       <c r="C106" s="56"/>
       <c r="D106" s="1" t="s">
@@ -5378,8 +5683,8 @@
       <c r="F106" s="57"/>
       <c r="G106" s="57"/>
     </row>
-    <row r="107" spans="1:7" ht="30" customHeight="1">
-      <c r="A107" s="58"/>
+    <row r="107" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="63"/>
       <c r="B107" s="57"/>
       <c r="C107" s="56"/>
       <c r="D107" s="1" t="s">
@@ -5391,12 +5696,12 @@
       <c r="F107" s="57"/>
       <c r="G107" s="57"/>
     </row>
-    <row r="108" spans="1:7" ht="30" customHeight="1">
-      <c r="A108" s="58"/>
-      <c r="B108" s="63" t="s">
+    <row r="108" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="63"/>
+      <c r="B108" s="58" t="s">
         <v>61</v>
       </c>
-      <c r="C108" s="59" t="s">
+      <c r="C108" s="60" t="s">
         <v>198</v>
       </c>
       <c r="D108" s="5" t="s">
@@ -5412,10 +5717,10 @@
         <v>262</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A109" s="58"/>
-      <c r="B109" s="61"/>
-      <c r="C109" s="64"/>
+    <row r="109" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="63"/>
+      <c r="B109" s="59"/>
+      <c r="C109" s="61"/>
       <c r="D109" s="5" t="s">
         <v>173</v>
       </c>
@@ -5425,165 +5730,56 @@
       <c r="F109" s="57"/>
       <c r="G109" s="57"/>
     </row>
-    <row r="110" spans="1:7" ht="30" customHeight="1">
+    <row r="110" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="C110" s="6"/>
     </row>
-    <row r="111" spans="1:7" ht="30" customHeight="1">
+    <row r="111" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="C111" s="6"/>
     </row>
-    <row r="112" spans="1:7" ht="30" customHeight="1">
+    <row r="112" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="C112" s="6"/>
     </row>
-    <row r="113" spans="1:3" ht="30" customHeight="1">
+    <row r="113" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="C113" s="6"/>
     </row>
-    <row r="114" spans="1:3" ht="30" customHeight="1">
+    <row r="114" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="C114" s="6"/>
     </row>
-    <row r="115" spans="1:3" ht="30" customHeight="1">
+    <row r="115" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="C115" s="6"/>
     </row>
-    <row r="116" spans="1:3" ht="30" customHeight="1">
+    <row r="116" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="C116" s="6"/>
     </row>
-    <row r="117" spans="1:3" ht="30" customHeight="1">
+    <row r="117" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="C117" s="6"/>
     </row>
-    <row r="118" spans="1:3" ht="30" customHeight="1">
+    <row r="118" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="C118" s="6"/>
     </row>
-    <row r="119" spans="1:3" ht="30" customHeight="1">
+    <row r="119" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="C119" s="6"/>
     </row>
-    <row r="120" spans="1:3" ht="30" customHeight="1">
+    <row r="120" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="C120" s="6"/>
     </row>
-    <row r="121" spans="1:3" ht="30" customHeight="1">
+    <row r="121" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="C121" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="133">
-    <mergeCell ref="F103:F107"/>
-    <mergeCell ref="F108:F109"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="B103:B107"/>
-    <mergeCell ref="C103:C107"/>
-    <mergeCell ref="G103:G107"/>
-    <mergeCell ref="G108:G109"/>
-    <mergeCell ref="B108:B109"/>
-    <mergeCell ref="C108:C109"/>
-    <mergeCell ref="F98:F100"/>
-    <mergeCell ref="G98:G100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="C98:C100"/>
-    <mergeCell ref="B98:B100"/>
-    <mergeCell ref="B93:B97"/>
-    <mergeCell ref="C93:C97"/>
-    <mergeCell ref="F86:F92"/>
-    <mergeCell ref="F93:F97"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="B86:B92"/>
-    <mergeCell ref="C86:C92"/>
-    <mergeCell ref="G86:G92"/>
-    <mergeCell ref="G93:G97"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="F78:F80"/>
-    <mergeCell ref="G78:G80"/>
-    <mergeCell ref="B78:B80"/>
-    <mergeCell ref="C78:C80"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="F63:F67"/>
-    <mergeCell ref="G63:G67"/>
-    <mergeCell ref="B63:B67"/>
-    <mergeCell ref="C63:C67"/>
-    <mergeCell ref="B68:B71"/>
-    <mergeCell ref="C68:C71"/>
-    <mergeCell ref="F68:F71"/>
-    <mergeCell ref="G68:G71"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
-    <mergeCell ref="F56:F58"/>
-    <mergeCell ref="G56:G58"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:C50"/>
-    <mergeCell ref="F48:F50"/>
-    <mergeCell ref="G48:G50"/>
-    <mergeCell ref="B51:B53"/>
-    <mergeCell ref="C51:C53"/>
-    <mergeCell ref="F51:F53"/>
-    <mergeCell ref="G51:G53"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C45:C47"/>
-    <mergeCell ref="F45:F47"/>
-    <mergeCell ref="G45:G47"/>
-    <mergeCell ref="B38:B42"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="F38:F42"/>
-    <mergeCell ref="G38:G42"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="G29:G31"/>
-    <mergeCell ref="F32:F35"/>
-    <mergeCell ref="G32:G35"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="G25:G27"/>
-    <mergeCell ref="C43:C44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="B14:B16"/>
-    <mergeCell ref="B17:B20"/>
-    <mergeCell ref="C17:C20"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="B29:B31"/>
-    <mergeCell ref="C29:C31"/>
-    <mergeCell ref="B32:B35"/>
-    <mergeCell ref="C32:C35"/>
-    <mergeCell ref="F29:F31"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="G11:G13"/>
-    <mergeCell ref="F14:F16"/>
-    <mergeCell ref="G14:G16"/>
-    <mergeCell ref="F17:F20"/>
-    <mergeCell ref="G17:G20"/>
-    <mergeCell ref="F21:F24"/>
-    <mergeCell ref="G21:G24"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="B4:B6"/>
@@ -5608,6 +5804,115 @@
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="G11:G13"/>
+    <mergeCell ref="F14:F16"/>
+    <mergeCell ref="G14:G16"/>
+    <mergeCell ref="F17:F20"/>
+    <mergeCell ref="G17:G20"/>
+    <mergeCell ref="F21:F24"/>
+    <mergeCell ref="G21:G24"/>
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="B17:B20"/>
+    <mergeCell ref="C17:C20"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="B29:B31"/>
+    <mergeCell ref="C29:C31"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="C32:C35"/>
+    <mergeCell ref="F29:F31"/>
+    <mergeCell ref="G29:G31"/>
+    <mergeCell ref="F32:F35"/>
+    <mergeCell ref="G32:G35"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="G25:G27"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="C45:C47"/>
+    <mergeCell ref="F45:F47"/>
+    <mergeCell ref="G45:G47"/>
+    <mergeCell ref="B38:B42"/>
+    <mergeCell ref="C38:C42"/>
+    <mergeCell ref="F38:F42"/>
+    <mergeCell ref="G38:G42"/>
+    <mergeCell ref="B54:B55"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="F56:F58"/>
+    <mergeCell ref="G56:G58"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:C50"/>
+    <mergeCell ref="F48:F50"/>
+    <mergeCell ref="G48:G50"/>
+    <mergeCell ref="B51:B53"/>
+    <mergeCell ref="C51:C53"/>
+    <mergeCell ref="F51:F53"/>
+    <mergeCell ref="G51:G53"/>
+    <mergeCell ref="F63:F67"/>
+    <mergeCell ref="G63:G67"/>
+    <mergeCell ref="B63:B67"/>
+    <mergeCell ref="C63:C67"/>
+    <mergeCell ref="B68:B71"/>
+    <mergeCell ref="C68:C71"/>
+    <mergeCell ref="F68:F71"/>
+    <mergeCell ref="G68:G71"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="F78:F80"/>
+    <mergeCell ref="G78:G80"/>
+    <mergeCell ref="B78:B80"/>
+    <mergeCell ref="C78:C80"/>
+    <mergeCell ref="B76:B77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="B74:B75"/>
+    <mergeCell ref="F86:F92"/>
+    <mergeCell ref="F93:F97"/>
+    <mergeCell ref="B84:B85"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="B86:B92"/>
+    <mergeCell ref="C86:C92"/>
+    <mergeCell ref="G86:G92"/>
+    <mergeCell ref="G93:G97"/>
+    <mergeCell ref="F98:F100"/>
+    <mergeCell ref="G98:G100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="C98:C100"/>
+    <mergeCell ref="B98:B100"/>
+    <mergeCell ref="B93:B97"/>
+    <mergeCell ref="C93:C97"/>
+    <mergeCell ref="F103:F107"/>
+    <mergeCell ref="F108:F109"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="B103:B107"/>
+    <mergeCell ref="C103:C107"/>
+    <mergeCell ref="G103:G107"/>
+    <mergeCell ref="G108:G109"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="C108:C109"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5616,16 +5921,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G4" sqref="G4:G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="15" customWidth="1"/>
     <col min="2" max="2" width="5.875" style="15" customWidth="1"/>
     <col min="3" max="3" width="19.25" style="15" customWidth="1"/>
     <col min="4" max="4" width="11" style="15" customWidth="1"/>
@@ -5635,29 +5940,29 @@
     <col min="8" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="22.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+    <row r="1" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="93" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="67"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" customHeight="1">
-      <c r="A2" s="68" t="s">
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="95"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="96" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="70"/>
-    </row>
-    <row r="3" spans="1:7" ht="18">
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>296</v>
       </c>
@@ -5680,14 +5985,14 @@
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A4" s="71" t="s">
+    <row r="4" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="84" t="s">
         <v>302</v>
       </c>
-      <c r="B4" s="74" t="s">
+      <c r="B4" s="87" t="s">
         <v>303</v>
       </c>
-      <c r="C4" s="75" t="s">
+      <c r="C4" s="99" t="s">
         <v>304</v>
       </c>
       <c r="D4" s="45" t="s">
@@ -5696,41 +6001,41 @@
       <c r="E4" s="45" t="s">
         <v>421</v>
       </c>
-      <c r="F4" s="76" t="s">
+      <c r="F4" s="83" t="s">
         <v>305</v>
       </c>
-      <c r="G4" s="78" t="s">
+      <c r="G4" s="100" t="s">
         <v>479</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="54.75" customHeight="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
+    <row r="5" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="85"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="99"/>
       <c r="D5" s="45" t="s">
         <v>418</v>
       </c>
       <c r="E5" s="45" t="s">
         <v>422</v>
       </c>
-      <c r="F5" s="77"/>
-      <c r="G5" s="79"/>
-    </row>
-    <row r="6" spans="1:7" ht="159.75" customHeight="1">
-      <c r="A6" s="72"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
+      <c r="F5" s="89"/>
+      <c r="G5" s="101"/>
+    </row>
+    <row r="6" spans="1:7" ht="159.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="85"/>
+      <c r="B6" s="87"/>
+      <c r="C6" s="99"/>
       <c r="D6" s="45" t="s">
         <v>419</v>
       </c>
       <c r="E6" s="45" t="s">
         <v>423</v>
       </c>
-      <c r="F6" s="77"/>
-      <c r="G6" s="79"/>
-    </row>
-    <row r="7" spans="1:7" ht="106.5" customHeight="1">
-      <c r="A7" s="72"/>
+      <c r="F6" s="89"/>
+      <c r="G6" s="101"/>
+    </row>
+    <row r="7" spans="1:7" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="85"/>
       <c r="B7" s="34" t="s">
         <v>306</v>
       </c>
@@ -5750,12 +6055,12 @@
         <v>453</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="180.75" customHeight="1">
-      <c r="A8" s="72"/>
-      <c r="B8" s="80" t="s">
+    <row r="8" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="85"/>
+      <c r="B8" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="C8" s="81" t="s">
+      <c r="C8" s="88" t="s">
         <v>310</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -5764,28 +6069,28 @@
       <c r="E8" s="19" t="s">
         <v>432</v>
       </c>
-      <c r="F8" s="82" t="s">
+      <c r="F8" s="76" t="s">
         <v>312</v>
       </c>
-      <c r="G8" s="83" t="s">
+      <c r="G8" s="90" t="s">
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="53.25" customHeight="1">
-      <c r="A9" s="72"/>
-      <c r="B9" s="80"/>
-      <c r="C9" s="81"/>
+    <row r="9" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="85"/>
+      <c r="B9" s="102"/>
+      <c r="C9" s="88"/>
       <c r="D9" s="18" t="s">
         <v>313</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="83"/>
-    </row>
-    <row r="10" spans="1:7" ht="149.25" customHeight="1">
-      <c r="A10" s="72"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="90"/>
+    </row>
+    <row r="10" spans="1:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="85"/>
       <c r="B10" s="20" t="s">
         <v>314</v>
       </c>
@@ -5805,12 +6110,12 @@
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="105.75" customHeight="1">
-      <c r="A11" s="72"/>
-      <c r="B11" s="80" t="s">
+    <row r="11" spans="1:7" ht="105.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="85"/>
+      <c r="B11" s="102" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="81" t="s">
+      <c r="C11" s="88" t="s">
         <v>320</v>
       </c>
       <c r="D11" s="41" t="s">
@@ -5819,28 +6124,28 @@
       <c r="E11" s="41" t="s">
         <v>435</v>
       </c>
-      <c r="F11" s="82" t="s">
+      <c r="F11" s="76" t="s">
         <v>322</v>
       </c>
-      <c r="G11" s="83" t="s">
+      <c r="G11" s="90" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="132.75" customHeight="1">
-      <c r="A12" s="72"/>
-      <c r="B12" s="80"/>
-      <c r="C12" s="81"/>
+    <row r="12" spans="1:7" ht="132.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="85"/>
+      <c r="B12" s="102"/>
+      <c r="C12" s="88"/>
       <c r="D12" s="41" t="s">
         <v>324</v>
       </c>
       <c r="E12" s="41" t="s">
         <v>436</v>
       </c>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-    </row>
-    <row r="13" spans="1:7" ht="26.25" customHeight="1">
-      <c r="A13" s="73"/>
+      <c r="F12" s="76"/>
+      <c r="G12" s="90"/>
+    </row>
+    <row r="13" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="86"/>
       <c r="B13" s="23" t="s">
         <v>325</v>
       </c>
@@ -5856,14 +6161,14 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="57.75" customHeight="1">
-      <c r="A14" s="71" t="s">
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="84" t="s">
         <v>329</v>
       </c>
-      <c r="B14" s="74" t="s">
+      <c r="B14" s="87" t="s">
         <v>330</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="88" t="s">
         <v>331</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -5872,67 +6177,67 @@
       <c r="E14" s="45" t="s">
         <v>437</v>
       </c>
-      <c r="F14" s="76" t="s">
+      <c r="F14" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="G14" s="86" t="s">
+      <c r="G14" s="65" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="30" customHeight="1">
-      <c r="A15" s="72"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="81"/>
+    <row r="15" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="85"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
       <c r="D15" s="19" t="s">
         <v>466</v>
       </c>
       <c r="E15" s="45" t="s">
         <v>465</v>
       </c>
-      <c r="F15" s="77"/>
-      <c r="G15" s="87"/>
-    </row>
-    <row r="16" spans="1:7" ht="30" customHeight="1">
-      <c r="A16" s="72"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="81"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="92"/>
+    </row>
+    <row r="16" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="85"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
       <c r="D16" s="19" t="s">
         <v>468</v>
       </c>
       <c r="E16" s="45" t="s">
         <v>467</v>
       </c>
-      <c r="F16" s="77"/>
-      <c r="G16" s="87"/>
-    </row>
-    <row r="17" spans="1:7" ht="30" customHeight="1">
-      <c r="A17" s="72"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="81"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="92"/>
+    </row>
+    <row r="17" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="85"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
       <c r="D17" s="27" t="s">
         <v>333</v>
       </c>
       <c r="E17" s="45" t="s">
         <v>469</v>
       </c>
-      <c r="F17" s="77"/>
-      <c r="G17" s="87"/>
-    </row>
-    <row r="18" spans="1:7" ht="216" customHeight="1">
-      <c r="A18" s="72"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="81"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="92"/>
+    </row>
+    <row r="18" spans="1:7" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="85"/>
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
       <c r="D18" s="44" t="s">
         <v>334</v>
       </c>
       <c r="E18" s="45" t="s">
         <v>470</v>
       </c>
-      <c r="F18" s="77"/>
-      <c r="G18" s="87"/>
-    </row>
-    <row r="19" spans="1:7" ht="118.5" customHeight="1">
-      <c r="A19" s="71" t="s">
+      <c r="F18" s="89"/>
+      <c r="G18" s="92"/>
+    </row>
+    <row r="19" spans="1:7" ht="118.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="84" t="s">
         <v>335</v>
       </c>
       <c r="B19" s="34" t="s">
@@ -5954,12 +6259,12 @@
         <v>339</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A20" s="72"/>
-      <c r="B20" s="74" t="s">
+    <row r="20" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="85"/>
+      <c r="B20" s="87" t="s">
         <v>341</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="66" t="s">
         <v>342</v>
       </c>
       <c r="D20" s="18" t="s">
@@ -5968,67 +6273,67 @@
       <c r="E20" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="83" t="s">
         <v>343</v>
       </c>
-      <c r="G20" s="83" t="s">
+      <c r="G20" s="90" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A21" s="72"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="84"/>
+    <row r="21" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="85"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="66"/>
       <c r="D21" s="18" t="s">
         <v>346</v>
       </c>
       <c r="E21" s="18" t="s">
         <v>440</v>
       </c>
-      <c r="F21" s="77"/>
-      <c r="G21" s="85"/>
-    </row>
-    <row r="22" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A22" s="72"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="84"/>
+      <c r="F21" s="89"/>
+      <c r="G21" s="91"/>
+    </row>
+    <row r="22" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="85"/>
+      <c r="B22" s="87"/>
+      <c r="C22" s="66"/>
       <c r="D22" s="18" t="s">
         <v>347</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>441</v>
       </c>
-      <c r="F22" s="77"/>
-      <c r="G22" s="85"/>
-    </row>
-    <row r="23" spans="1:7" ht="46.5" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="84"/>
+      <c r="F22" s="89"/>
+      <c r="G22" s="91"/>
+    </row>
+    <row r="23" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="85"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="66"/>
       <c r="D23" s="18" t="s">
         <v>348</v>
       </c>
       <c r="E23" s="18" t="s">
         <v>442</v>
       </c>
-      <c r="F23" s="77"/>
-      <c r="G23" s="85"/>
-    </row>
-    <row r="24" spans="1:7" ht="93.75" customHeight="1">
-      <c r="A24" s="72"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="84"/>
+      <c r="F23" s="89"/>
+      <c r="G23" s="91"/>
+    </row>
+    <row r="24" spans="1:7" ht="93.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="85"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="66"/>
       <c r="D24" s="18" t="s">
         <v>349</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="F24" s="77"/>
-      <c r="G24" s="85"/>
-    </row>
-    <row r="25" spans="1:7" ht="114" customHeight="1">
-      <c r="A25" s="72"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="91"/>
+    </row>
+    <row r="25" spans="1:7" ht="114" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="85"/>
       <c r="B25" s="34" t="s">
         <v>350</v>
       </c>
@@ -6048,8 +6353,8 @@
         <v>476</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="100.5" customHeight="1">
-      <c r="A26" s="71" t="s">
+    <row r="26" spans="1:7" ht="100.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="84" t="s">
         <v>354</v>
       </c>
       <c r="B26" s="34" t="s">
@@ -6071,8 +6376,8 @@
         <v>358</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="105" customHeight="1">
-      <c r="A27" s="72"/>
+    <row r="27" spans="1:7" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="85"/>
       <c r="B27" s="34" t="s">
         <v>360</v>
       </c>
@@ -6092,12 +6397,12 @@
         <v>363</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="66.75" customHeight="1">
-      <c r="A28" s="72"/>
-      <c r="B28" s="74" t="s">
+    <row r="28" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="85"/>
+      <c r="B28" s="87" t="s">
         <v>365</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="82" t="s">
         <v>366</v>
       </c>
       <c r="D28" s="48" t="s">
@@ -6106,24 +6411,24 @@
       <c r="E28" s="48" t="s">
         <v>473</v>
       </c>
-      <c r="F28" s="82" t="s">
+      <c r="F28" s="76" t="s">
         <v>367</v>
       </c>
-      <c r="G28" s="76" t="s">
+      <c r="G28" s="83" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="66.75" customHeight="1">
-      <c r="A29" s="72"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="88"/>
+    <row r="29" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="85"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="19"/>
       <c r="E29" s="43"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30" spans="1:7" ht="101.25" customHeight="1">
-      <c r="A30" s="72"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="83"/>
+    </row>
+    <row r="30" spans="1:7" ht="101.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="85"/>
       <c r="B30" s="34" t="s">
         <v>368</v>
       </c>
@@ -6143,12 +6448,12 @@
         <v>371</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="58.5" customHeight="1">
-      <c r="A31" s="72"/>
-      <c r="B31" s="74" t="s">
+    <row r="31" spans="1:7" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="85"/>
+      <c r="B31" s="87" t="s">
         <v>372</v>
       </c>
-      <c r="C31" s="89" t="s">
+      <c r="C31" s="81" t="s">
         <v>373</v>
       </c>
       <c r="D31" s="18" t="s">
@@ -6157,32 +6462,32 @@
       <c r="E31" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="F31" s="82" t="s">
+      <c r="F31" s="76" t="s">
         <v>374</v>
       </c>
-      <c r="G31" s="86" t="s">
+      <c r="G31" s="65" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="42" customHeight="1">
-      <c r="A32" s="72"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="89"/>
+    <row r="32" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="85"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="19" t="s">
         <v>376</v>
       </c>
       <c r="E32" s="45" t="s">
         <v>454</v>
       </c>
-      <c r="F32" s="82"/>
-      <c r="G32" s="86"/>
-    </row>
-    <row r="33" spans="1:7" ht="45" customHeight="1">
-      <c r="A33" s="72"/>
-      <c r="B33" s="74" t="s">
+      <c r="F32" s="76"/>
+      <c r="G32" s="65"/>
+    </row>
+    <row r="33" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="85"/>
+      <c r="B33" s="87" t="s">
         <v>377</v>
       </c>
-      <c r="C33" s="81" t="s">
+      <c r="C33" s="88" t="s">
         <v>378</v>
       </c>
       <c r="D33" s="19" t="s">
@@ -6191,45 +6496,45 @@
       <c r="E33" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="F33" s="76" t="s">
+      <c r="F33" s="83" t="s">
         <v>379</v>
       </c>
-      <c r="G33" s="86" t="s">
+      <c r="G33" s="65" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="45" customHeight="1">
-      <c r="A34" s="72"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="81"/>
+    <row r="34" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="85"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
       <c r="D34" s="27" t="s">
         <v>430</v>
       </c>
       <c r="E34" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="F34" s="77"/>
-      <c r="G34" s="86"/>
-    </row>
-    <row r="35" spans="1:7" ht="59.25" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="81"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="65"/>
+    </row>
+    <row r="35" spans="1:7" ht="59.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="85"/>
+      <c r="B35" s="87"/>
+      <c r="C35" s="88"/>
       <c r="D35" s="19" t="s">
         <v>381</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>425</v>
       </c>
-      <c r="F35" s="77"/>
-      <c r="G35" s="86"/>
-    </row>
-    <row r="36" spans="1:7" ht="49.5" customHeight="1">
-      <c r="A36" s="72"/>
-      <c r="B36" s="74" t="s">
+      <c r="F35" s="89"/>
+      <c r="G35" s="65"/>
+    </row>
+    <row r="36" spans="1:7" ht="49.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="85"/>
+      <c r="B36" s="87" t="s">
         <v>382</v>
       </c>
-      <c r="C36" s="88" t="s">
+      <c r="C36" s="82" t="s">
         <v>383</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -6238,41 +6543,41 @@
       <c r="E36" s="19" t="s">
         <v>449</v>
       </c>
-      <c r="F36" s="76" t="s">
+      <c r="F36" s="83" t="s">
         <v>385</v>
       </c>
-      <c r="G36" s="86" t="s">
+      <c r="G36" s="65" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="45" customHeight="1">
-      <c r="A37" s="72"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="88"/>
+    <row r="37" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="85"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="82"/>
       <c r="D37" s="27" t="s">
         <v>430</v>
       </c>
       <c r="E37" s="40" t="s">
         <v>424</v>
       </c>
-      <c r="F37" s="77"/>
-      <c r="G37" s="86"/>
-    </row>
-    <row r="38" spans="1:7" ht="36" customHeight="1">
-      <c r="A38" s="73"/>
-      <c r="B38" s="74"/>
-      <c r="C38" s="88"/>
+      <c r="F37" s="89"/>
+      <c r="G37" s="65"/>
+    </row>
+    <row r="38" spans="1:7" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="86"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="82"/>
       <c r="D38" s="19" t="s">
         <v>456</v>
       </c>
       <c r="E38" s="19" t="s">
         <v>426</v>
       </c>
-      <c r="F38" s="77"/>
-      <c r="G38" s="86"/>
-    </row>
-    <row r="39" spans="1:7" s="30" customFormat="1" ht="121.5" customHeight="1">
-      <c r="A39" s="92" t="s">
+      <c r="F38" s="89"/>
+      <c r="G38" s="65"/>
+    </row>
+    <row r="39" spans="1:7" s="30" customFormat="1" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="74" t="s">
         <v>387</v>
       </c>
       <c r="B39" s="28" t="s">
@@ -6294,12 +6599,12 @@
         <v>452</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="30" customFormat="1" ht="142.5" customHeight="1">
-      <c r="A40" s="93"/>
-      <c r="B40" s="91" t="s">
+    <row r="40" spans="1:7" s="30" customFormat="1" ht="142.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="71"/>
+      <c r="B40" s="73" t="s">
         <v>391</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="81" t="s">
         <v>392</v>
       </c>
       <c r="D40" s="45" t="s">
@@ -6308,34 +6613,34 @@
       <c r="E40" s="45" t="s">
         <v>427</v>
       </c>
-      <c r="F40" s="82" t="s">
+      <c r="F40" s="76" t="s">
         <v>393</v>
       </c>
-      <c r="G40" s="95" t="s">
+      <c r="G40" s="69" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="30" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A41" s="94"/>
-      <c r="B41" s="91"/>
-      <c r="C41" s="89"/>
+    <row r="41" spans="1:7" s="30" customFormat="1" ht="61.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="45" t="s">
         <v>458</v>
       </c>
       <c r="E41" s="45" t="s">
         <v>428</v>
       </c>
-      <c r="F41" s="82"/>
-      <c r="G41" s="96"/>
-    </row>
-    <row r="42" spans="1:7" s="30" customFormat="1" ht="87" customHeight="1">
-      <c r="A42" s="92" t="s">
+      <c r="F41" s="76"/>
+      <c r="G41" s="70"/>
+    </row>
+    <row r="42" spans="1:7" s="30" customFormat="1" ht="87" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="74" t="s">
         <v>395</v>
       </c>
-      <c r="B42" s="91" t="s">
+      <c r="B42" s="73" t="s">
         <v>396</v>
       </c>
-      <c r="C42" s="99" t="s">
+      <c r="C42" s="75" t="s">
         <v>397</v>
       </c>
       <c r="D42" s="45" t="s">
@@ -6344,32 +6649,32 @@
       <c r="E42" s="45" t="s">
         <v>459</v>
       </c>
-      <c r="F42" s="82" t="s">
+      <c r="F42" s="76" t="s">
         <v>398</v>
       </c>
-      <c r="G42" s="100" t="s">
+      <c r="G42" s="77" t="s">
         <v>463</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="30" customFormat="1" ht="96.75" customHeight="1">
-      <c r="A43" s="93"/>
-      <c r="B43" s="91"/>
-      <c r="C43" s="99"/>
+    <row r="43" spans="1:7" s="30" customFormat="1" ht="96.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="71"/>
+      <c r="B43" s="73"/>
+      <c r="C43" s="75"/>
       <c r="D43" s="45" t="s">
         <v>462</v>
       </c>
       <c r="E43" s="45" t="s">
         <v>461</v>
       </c>
-      <c r="F43" s="82"/>
-      <c r="G43" s="101"/>
-    </row>
-    <row r="44" spans="1:7" s="30" customFormat="1" ht="108.75" customHeight="1">
-      <c r="A44" s="93"/>
-      <c r="B44" s="91" t="s">
+      <c r="F43" s="76"/>
+      <c r="G43" s="78"/>
+    </row>
+    <row r="44" spans="1:7" s="30" customFormat="1" ht="108.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="71"/>
+      <c r="B44" s="73" t="s">
         <v>399</v>
       </c>
-      <c r="C44" s="102" t="s">
+      <c r="C44" s="79" t="s">
         <v>400</v>
       </c>
       <c r="D44" s="45" t="s">
@@ -6378,28 +6683,28 @@
       <c r="E44" s="45" t="s">
         <v>445</v>
       </c>
-      <c r="F44" s="82" t="s">
+      <c r="F44" s="76" t="s">
         <v>402</v>
       </c>
-      <c r="G44" s="90" t="s">
+      <c r="G44" s="80" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="30" customFormat="1" ht="86.25" customHeight="1">
-      <c r="A45" s="93"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="102"/>
+    <row r="45" spans="1:7" s="30" customFormat="1" ht="86.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="71"/>
+      <c r="B45" s="73"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="45" t="s">
         <v>403</v>
       </c>
       <c r="E45" s="45" t="s">
         <v>464</v>
       </c>
-      <c r="F45" s="82"/>
-      <c r="G45" s="90"/>
-    </row>
-    <row r="46" spans="1:7" s="30" customFormat="1" ht="49.5">
-      <c r="A46" s="93"/>
+      <c r="F45" s="76"/>
+      <c r="G45" s="80"/>
+    </row>
+    <row r="46" spans="1:7" s="30" customFormat="1" ht="49.5" x14ac:dyDescent="0.15">
+      <c r="A46" s="71"/>
       <c r="B46" s="28" t="s">
         <v>404</v>
       </c>
@@ -6419,62 +6724,111 @@
         <v>407</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="30" customFormat="1" ht="36" customHeight="1">
-      <c r="A47" s="93"/>
-      <c r="B47" s="91" t="s">
+    <row r="47" spans="1:7" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="71"/>
+      <c r="B47" s="73" t="s">
         <v>408</v>
       </c>
-      <c r="C47" s="84" t="s">
+      <c r="C47" s="66" t="s">
         <v>478</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
-      <c r="F47" s="97" t="s">
+      <c r="F47" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="G47" s="95" t="s">
+      <c r="G47" s="69" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="30" customFormat="1" ht="36" customHeight="1">
-      <c r="A48" s="93"/>
-      <c r="B48" s="91"/>
-      <c r="C48" s="84"/>
+    <row r="48" spans="1:7" s="30" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="71"/>
+      <c r="B48" s="73"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="32"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="98"/>
-      <c r="G48" s="96"/>
-    </row>
-    <row r="49" spans="1:7" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A49" s="93" t="s">
+      <c r="F48" s="68"/>
+      <c r="G48" s="70"/>
+    </row>
+    <row r="49" spans="1:7" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="B49" s="91" t="s">
+      <c r="B49" s="73" t="s">
         <v>412</v>
       </c>
-      <c r="C49" s="84" t="s">
+      <c r="C49" s="66" t="s">
         <v>88</v>
       </c>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
-      <c r="F49" s="97" t="s">
+      <c r="F49" s="67" t="s">
         <v>413</v>
       </c>
-      <c r="G49" s="95" t="s">
+      <c r="G49" s="69" t="s">
         <v>414</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="30" customFormat="1" ht="31.5" customHeight="1">
-      <c r="A50" s="94"/>
-      <c r="B50" s="91"/>
-      <c r="C50" s="84"/>
+    <row r="50" spans="1:7" s="30" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="72"/>
+      <c r="B50" s="73"/>
+      <c r="C50" s="66"/>
       <c r="D50" s="32"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="98"/>
-      <c r="G50" s="95"/>
+      <c r="F50" s="68"/>
+      <c r="G50" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="65">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A4:A13"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="C14:C18"/>
+    <mergeCell ref="F14:F18"/>
+    <mergeCell ref="G14:G18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A26:A38"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="C33:C35"/>
+    <mergeCell ref="F33:F35"/>
+    <mergeCell ref="G33:G35"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="C36:C38"/>
+    <mergeCell ref="F36:F38"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
     <mergeCell ref="G36:G38"/>
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="F47:F48"/>
@@ -6491,55 +6845,6 @@
     <mergeCell ref="G42:G43"/>
     <mergeCell ref="B44:B45"/>
     <mergeCell ref="C44:C45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A39:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A26:A38"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="B33:B35"/>
-    <mergeCell ref="C33:C35"/>
-    <mergeCell ref="F33:F35"/>
-    <mergeCell ref="G33:G35"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="C36:C38"/>
-    <mergeCell ref="F36:F38"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="F20:F24"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="C14:C18"/>
-    <mergeCell ref="F14:F18"/>
-    <mergeCell ref="G14:G18"/>
-    <mergeCell ref="A19:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A4:A13"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6548,14 +6853,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A1:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
   </cols>
